--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.8278361642453</v>
+        <v>61.91334466666666</v>
       </c>
       <c r="H2">
-        <v>43.8278361642453</v>
+        <v>185.740034</v>
       </c>
       <c r="I2">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="J2">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.114982154218</v>
+        <v>91.67302333333333</v>
       </c>
       <c r="N2">
-        <v>30.114982154218</v>
+        <v>275.01907</v>
       </c>
       <c r="O2">
-        <v>0.7455330692837193</v>
+        <v>0.8966431814716052</v>
       </c>
       <c r="P2">
-        <v>0.7455330692837193</v>
+        <v>0.896643181471605</v>
       </c>
       <c r="Q2">
-        <v>1319.874503944237</v>
+        <v>5675.783490272041</v>
       </c>
       <c r="R2">
-        <v>1319.874503944237</v>
+        <v>51082.05141244837</v>
       </c>
       <c r="S2">
-        <v>0.3120949116999376</v>
+        <v>0.4501892480192734</v>
       </c>
       <c r="T2">
-        <v>0.3120949116999376</v>
+        <v>0.4501892480192733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.8278361642453</v>
+        <v>61.91334466666666</v>
       </c>
       <c r="H3">
-        <v>43.8278361642453</v>
+        <v>185.740034</v>
       </c>
       <c r="I3">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="J3">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.471728075009411</v>
+        <v>8.548386000000001</v>
       </c>
       <c r="N3">
-        <v>8.471728075009411</v>
+        <v>25.645158</v>
       </c>
       <c r="O3">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850333</v>
       </c>
       <c r="P3">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850332</v>
       </c>
       <c r="Q3">
-        <v>371.2975100995496</v>
+        <v>529.259168761708</v>
       </c>
       <c r="R3">
-        <v>371.2975100995496</v>
+        <v>4763.332518855372</v>
       </c>
       <c r="S3">
-        <v>0.08779627402653532</v>
+        <v>0.04197954125637707</v>
       </c>
       <c r="T3">
-        <v>0.08779627402653532</v>
+        <v>0.04197954125637707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.8278361642453</v>
+        <v>61.91334466666666</v>
       </c>
       <c r="H4">
-        <v>43.8278361642453</v>
+        <v>185.740034</v>
       </c>
       <c r="I4">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="J4">
-        <v>0.4186198098493296</v>
+        <v>0.5020829437194911</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.80718159793374</v>
+        <v>2.018841</v>
       </c>
       <c r="N4">
-        <v>1.80718159793374</v>
+        <v>6.056523</v>
       </c>
       <c r="O4">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="P4">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="Q4">
-        <v>79.20485899327898</v>
+        <v>124.993198660198</v>
       </c>
       <c r="R4">
-        <v>79.20485899327898</v>
+        <v>1124.938787941782</v>
       </c>
       <c r="S4">
-        <v>0.01872862412285659</v>
+        <v>0.009914154443840691</v>
       </c>
       <c r="T4">
-        <v>0.01872862412285659</v>
+        <v>0.00991415444384069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.9888272123428</v>
+        <v>50.09443433333333</v>
       </c>
       <c r="H5">
-        <v>49.9888272123428</v>
+        <v>150.283303</v>
       </c>
       <c r="I5">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674705</v>
       </c>
       <c r="J5">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674706</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.114982154218</v>
+        <v>91.67302333333333</v>
       </c>
       <c r="N5">
-        <v>30.114982154218</v>
+        <v>275.01907</v>
       </c>
       <c r="O5">
-        <v>0.7455330692837193</v>
+        <v>0.8966431814716052</v>
       </c>
       <c r="P5">
-        <v>0.7455330692837193</v>
+        <v>0.896643181471605</v>
       </c>
       <c r="Q5">
-        <v>1505.412639409991</v>
+        <v>4592.308247509801</v>
       </c>
       <c r="R5">
-        <v>1505.412639409991</v>
+        <v>41330.7742275882</v>
       </c>
       <c r="S5">
-        <v>0.355966891825407</v>
+        <v>0.3642506448955566</v>
       </c>
       <c r="T5">
-        <v>0.355966891825407</v>
+        <v>0.3642506448955566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.9888272123428</v>
+        <v>50.09443433333333</v>
       </c>
       <c r="H6">
-        <v>49.9888272123428</v>
+        <v>150.283303</v>
       </c>
       <c r="I6">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674705</v>
       </c>
       <c r="J6">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674706</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.471728075009411</v>
+        <v>8.548386000000001</v>
       </c>
       <c r="N6">
-        <v>8.471728075009411</v>
+        <v>25.645158</v>
       </c>
       <c r="O6">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850333</v>
       </c>
       <c r="P6">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850332</v>
       </c>
       <c r="Q6">
-        <v>423.4917509315989</v>
+        <v>428.226561132986</v>
       </c>
       <c r="R6">
-        <v>423.4917509315989</v>
+        <v>3854.039050196874</v>
       </c>
       <c r="S6">
-        <v>0.1001380208631057</v>
+        <v>0.03396588222027092</v>
       </c>
       <c r="T6">
-        <v>0.1001380208631057</v>
+        <v>0.03396588222027092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.9888272123428</v>
+        <v>50.09443433333333</v>
       </c>
       <c r="H7">
-        <v>49.9888272123428</v>
+        <v>150.283303</v>
       </c>
       <c r="I7">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674705</v>
       </c>
       <c r="J7">
-        <v>0.4774662674150817</v>
+        <v>0.4062381250674706</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.80718159793374</v>
+        <v>2.018841</v>
       </c>
       <c r="N7">
-        <v>1.80718159793374</v>
+        <v>6.056523</v>
       </c>
       <c r="O7">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="P7">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="Q7">
-        <v>90.33888864043529</v>
+        <v>101.132697903941</v>
       </c>
       <c r="R7">
-        <v>90.33888864043529</v>
+        <v>910.1942811354689</v>
       </c>
       <c r="S7">
-        <v>0.021361354726569</v>
+        <v>0.008021597951643032</v>
       </c>
       <c r="T7">
-        <v>0.021361354726569</v>
+        <v>0.008021597951643032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.8793761634898</v>
+        <v>11.30520233333333</v>
       </c>
       <c r="H8">
-        <v>10.8793761634898</v>
+        <v>33.915607</v>
       </c>
       <c r="I8">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303822</v>
       </c>
       <c r="J8">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303823</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.114982154218</v>
+        <v>91.67302333333333</v>
       </c>
       <c r="N8">
-        <v>30.114982154218</v>
+        <v>275.01907</v>
       </c>
       <c r="O8">
-        <v>0.7455330692837193</v>
+        <v>0.8966431814716052</v>
       </c>
       <c r="P8">
-        <v>0.7455330692837193</v>
+        <v>0.896643181471605</v>
       </c>
       <c r="Q8">
-        <v>327.63221901252</v>
+        <v>1036.382077291721</v>
       </c>
       <c r="R8">
-        <v>327.63221901252</v>
+        <v>9327.438695625491</v>
       </c>
       <c r="S8">
-        <v>0.07747126575837475</v>
+        <v>0.08220328855677503</v>
       </c>
       <c r="T8">
-        <v>0.07747126575837475</v>
+        <v>0.08220328855677503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.8793761634898</v>
+        <v>11.30520233333333</v>
       </c>
       <c r="H9">
-        <v>10.8793761634898</v>
+        <v>33.915607</v>
       </c>
       <c r="I9">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303822</v>
       </c>
       <c r="J9">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303823</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.471728075009411</v>
+        <v>8.548386000000001</v>
       </c>
       <c r="N9">
-        <v>8.471728075009411</v>
+        <v>25.645158</v>
       </c>
       <c r="O9">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850333</v>
       </c>
       <c r="P9">
-        <v>0.2097279487517208</v>
+        <v>0.08361076945850332</v>
       </c>
       <c r="Q9">
-        <v>92.16711648282471</v>
+        <v>96.64123335343402</v>
       </c>
       <c r="R9">
-        <v>92.16711648282471</v>
+        <v>869.7711001809062</v>
       </c>
       <c r="S9">
-        <v>0.02179365386207984</v>
+        <v>0.007665345981855324</v>
       </c>
       <c r="T9">
-        <v>0.02179365386207984</v>
+        <v>0.007665345981855324</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.8793761634898</v>
+        <v>11.30520233333333</v>
       </c>
       <c r="H10">
-        <v>10.8793761634898</v>
+        <v>33.915607</v>
       </c>
       <c r="I10">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303822</v>
       </c>
       <c r="J10">
-        <v>0.1039139227355888</v>
+        <v>0.09167893121303823</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.80718159793374</v>
+        <v>2.018841</v>
       </c>
       <c r="N10">
-        <v>1.80718159793374</v>
+        <v>6.056523</v>
       </c>
       <c r="O10">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="P10">
-        <v>0.04473898196455974</v>
+        <v>0.01974604906989159</v>
       </c>
       <c r="Q10">
-        <v>19.66100839965774</v>
+        <v>22.823405983829</v>
       </c>
       <c r="R10">
-        <v>19.66100839965774</v>
+        <v>205.410653854461</v>
       </c>
       <c r="S10">
-        <v>0.004649003115134161</v>
+        <v>0.001810296674407869</v>
       </c>
       <c r="T10">
-        <v>0.004649003115134161</v>
+        <v>0.001810296674407869</v>
       </c>
     </row>
   </sheetData>
